--- a/server/tempendsem.xlsx
+++ b/server/tempendsem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C961BD7-A6DF-432F-BB7A-5DA9AA78B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BD7C6-D168-4440-8EAD-C6E117FF5FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>5c</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -444,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +516,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>4</v>
       </c>
@@ -552,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -599,7 +614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +666,11 @@
       <c r="Q4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -704,8 +722,11 @@
       <c r="Q5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -757,8 +778,11 @@
       <c r="Q6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -810,8 +834,11 @@
       <c r="Q7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -863,8 +890,11 @@
       <c r="Q8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -916,8 +946,11 @@
       <c r="Q9">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,11 @@
       <c r="Q10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1022,8 +1058,11 @@
       <c r="Q11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1114,11 @@
       <c r="Q12">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1127,6 +1169,9 @@
       </c>
       <c r="Q13">
         <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
